--- a/SSIPM_output/DIC_table.xlsx
+++ b/SSIPM_output/DIC_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Desktop/COAST/ssipm/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Desktop/COAST/ssipm/SSIPM_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520B5C15-A44B-FC45-96FC-76D7F0220268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FBEB1E-6831-7F43-A487-9D77B30DA164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{CB1A65D6-7E39-074B-93C2-894686A9E6DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{CB1A65D6-7E39-074B-93C2-894686A9E6DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
   <si>
     <t xml:space="preserve">Species </t>
   </si>
@@ -140,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -198,6 +198,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -208,11 +232,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -263,16 +307,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +343,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A3F24A-F4EA-0E49-A471-DE2B72346833}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -659,19 +763,19 @@
     <row r="1" spans="1:12">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12">
@@ -713,7 +817,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -751,79 +855,79 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5621.4170000000004</v>
+      </c>
+      <c r="D4" s="9">
+        <v>47.828690000000002</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5573.5879999999997</v>
+      </c>
+      <c r="F4" s="9">
+        <v>11195</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.0021370000000001</v>
+      </c>
+      <c r="H4" s="16">
+        <v>4632.5879999999997</v>
+      </c>
+      <c r="I4" s="9">
+        <v>28.291080000000001</v>
+      </c>
+      <c r="J4" s="9">
+        <v>4604.2969999999996</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9236.8860000000004</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1.0024230000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="18">
         <v>21075.23</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="18">
         <v>58.942900000000002</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="18">
         <v>21016.29</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="18">
         <v>42091.53</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G5" s="19">
         <v>1.0032829999999999</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H5" s="20">
         <v>5905.5469999999996</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I5" s="20">
         <v>30.894480000000001</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J5" s="20">
         <v>5874.6530000000002</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K5" s="20">
         <v>11780.2</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L5" s="21">
         <v>1.0051479999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="18">
-        <v>5621.4170000000004</v>
-      </c>
-      <c r="D5" s="18">
-        <v>47.828690000000002</v>
-      </c>
-      <c r="E5" s="18">
-        <v>5573.5879999999997</v>
-      </c>
-      <c r="F5" s="18">
-        <v>11195</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1.0021370000000001</v>
-      </c>
-      <c r="H5" s="16">
-        <v>4632.5879999999997</v>
-      </c>
-      <c r="I5" s="18">
-        <v>28.291080000000001</v>
-      </c>
-      <c r="J5" s="18">
-        <v>4604.2969999999996</v>
-      </c>
-      <c r="K5" s="18">
-        <v>9236.8860000000004</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1.0024230000000001</v>
-      </c>
-    </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -844,7 +948,7 @@
       <c r="G6" s="15">
         <v>1.0052129999999999</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <v>4595.9229999999998</v>
       </c>
       <c r="I6" s="14">
@@ -861,79 +965,79 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2329.5129999999999</v>
+      </c>
+      <c r="D7" s="23">
+        <v>63.102170000000001</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2266.4110000000001</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4595.9229999999998</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1.0003120000000001</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1837.864</v>
+      </c>
+      <c r="I7" s="23">
+        <v>34.518270000000001</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1803.346</v>
+      </c>
+      <c r="K7" s="23">
+        <v>3641.2089999999998</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1.004764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="18">
         <v>15531.9</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="18">
         <v>51.873510000000003</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="18">
         <v>15480.03</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="18">
         <v>31011.919999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="19">
         <v>1.0055970000000001</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H8" s="18">
         <v>2571.239</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="18">
         <v>35.241729999999997</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="18">
         <v>2535.9969999999998</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="18">
         <v>5107.2349999999997</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L8" s="12">
         <v>1.0039560000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2329.5129999999999</v>
-      </c>
-      <c r="D8" s="21">
-        <v>63.102170000000001</v>
-      </c>
-      <c r="E8" s="21">
-        <v>2266.4110000000001</v>
-      </c>
-      <c r="F8" s="21">
-        <v>4595.9229999999998</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1.0003120000000001</v>
-      </c>
-      <c r="H8" s="20">
-        <v>1837.864</v>
-      </c>
-      <c r="I8" s="21">
-        <v>34.518270000000001</v>
-      </c>
-      <c r="J8" s="21">
-        <v>1803.346</v>
-      </c>
-      <c r="K8" s="21">
-        <v>3641.2089999999998</v>
-      </c>
-      <c r="L8" s="22">
-        <v>1.004764</v>
-      </c>
-    </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -971,79 +1075,576 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3158.9690000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.097799999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3104.8710000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6263.8389999999999</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1.001071</v>
+      </c>
+      <c r="H10" s="22">
+        <v>2469.415</v>
+      </c>
+      <c r="I10" s="23">
+        <v>48.523870000000002</v>
+      </c>
+      <c r="J10" s="23">
+        <v>2420.8910000000001</v>
+      </c>
+      <c r="K10" s="23">
+        <v>4890.3069999999998</v>
+      </c>
+      <c r="L10" s="24">
+        <v>1.002785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="18">
         <v>17910.990000000002</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="18">
         <v>52.73272</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="18">
         <v>17858.259999999998</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="18">
         <v>35769.25</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="19">
         <v>1.0014080000000001</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H11" s="20">
         <v>6094.3649999999998</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I11" s="20">
         <v>36.899000000000001</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J11" s="20">
         <v>6057.4660000000003</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K11" s="20">
         <v>12151.83</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L11" s="21">
         <v>1.001042</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="10" t="s">
+    <row r="13" spans="1:12">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3115.4580000000001</v>
+      </c>
+      <c r="D19" s="14">
+        <v>134.41050000000001</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2981.047</v>
+      </c>
+      <c r="F19" s="14">
+        <v>6096.5050000000001</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1.009806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="38"/>
+      <c r="B20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C20" s="9">
+        <v>5621.4170000000004</v>
+      </c>
+      <c r="D20" s="9">
+        <v>47.828690000000002</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5573.5879999999997</v>
+      </c>
+      <c r="F20" s="9">
+        <v>11195</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.0021370000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="18">
+        <v>21075.23</v>
+      </c>
+      <c r="D21" s="18">
+        <v>58.942900000000002</v>
+      </c>
+      <c r="E21" s="18">
+        <v>21016.29</v>
+      </c>
+      <c r="F21" s="18">
+        <v>42091.53</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1.0032829999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2127.2130000000002</v>
+      </c>
+      <c r="D22" s="14">
+        <v>94.575839999999999</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2032.6369999999999</v>
+      </c>
+      <c r="F22" s="14">
+        <v>4159.8490000000002</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1.0052129999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="40"/>
+      <c r="B23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="23">
+        <v>2329.5129999999999</v>
+      </c>
+      <c r="D23" s="23">
+        <v>63.102170000000001</v>
+      </c>
+      <c r="E23" s="23">
+        <v>2266.4110000000001</v>
+      </c>
+      <c r="F23" s="23">
+        <v>4595.9229999999998</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1.0003120000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="41"/>
+      <c r="B24" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="18">
+        <v>15531.9</v>
+      </c>
+      <c r="D24" s="18">
+        <v>51.873510000000003</v>
+      </c>
+      <c r="E24" s="18">
+        <v>15480.03</v>
+      </c>
+      <c r="F24" s="18">
+        <v>31011.919999999998</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1.0055970000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2210.732</v>
+      </c>
+      <c r="D25" s="14">
+        <v>91.279799999999994</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2119.4520000000002</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4330.1840000000002</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1.005644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="42"/>
+      <c r="B26" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="9">
         <v>3158.9690000000001</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D26" s="9">
         <v>54.097799999999999</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E26" s="9">
         <v>3104.8710000000001</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F26" s="9">
         <v>6263.8389999999999</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G26" s="11">
         <v>1.001071</v>
       </c>
-      <c r="H11" s="20">
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="43"/>
+      <c r="B27" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="18">
+        <v>17910.990000000002</v>
+      </c>
+      <c r="D27" s="18">
+        <v>52.73272</v>
+      </c>
+      <c r="E27" s="18">
+        <v>17858.259999999998</v>
+      </c>
+      <c r="F27" s="18">
+        <v>35769.25</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1.0014080000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="44"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="16" customHeight="1">
+      <c r="A30" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="33">
+        <v>3031.355</v>
+      </c>
+      <c r="D31" s="14">
+        <v>58.641689999999997</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2972.7130000000002</v>
+      </c>
+      <c r="F31" s="14">
+        <v>6004.0680000000002</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1.0078100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="38"/>
+      <c r="B32" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="32">
+        <v>4632.5879999999997</v>
+      </c>
+      <c r="D32" s="9">
+        <v>28.291080000000001</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4604.2969999999996</v>
+      </c>
+      <c r="F32" s="9">
+        <v>9236.8860000000004</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1.0024230000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" customHeight="1">
+      <c r="A33" s="39"/>
+      <c r="B33" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20">
+        <v>5905.5469999999996</v>
+      </c>
+      <c r="D33" s="20">
+        <v>30.894480000000001</v>
+      </c>
+      <c r="E33" s="20">
+        <v>5874.6530000000002</v>
+      </c>
+      <c r="F33" s="20">
+        <v>11780.2</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1.0051479999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="33">
+        <v>4595.9229999999998</v>
+      </c>
+      <c r="D34" s="14">
+        <v>70.52928</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1716.8689999999999</v>
+      </c>
+      <c r="F34" s="14">
+        <v>3504.2669999999998</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1.0028980000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="40"/>
+      <c r="B35" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="34">
+        <v>1837.864</v>
+      </c>
+      <c r="D35" s="23">
+        <v>34.518270000000001</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1803.346</v>
+      </c>
+      <c r="F35" s="23">
+        <v>3641.2089999999998</v>
+      </c>
+      <c r="G35" s="24">
+        <v>1.004764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" customHeight="1">
+      <c r="A36" s="41"/>
+      <c r="B36" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2571.239</v>
+      </c>
+      <c r="D36" s="18">
+        <v>35.241729999999997</v>
+      </c>
+      <c r="E36" s="18">
+        <v>2535.9969999999998</v>
+      </c>
+      <c r="F36" s="18">
+        <v>5107.2349999999997</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1.0039560000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2007.739</v>
+      </c>
+      <c r="D37" s="14">
+        <v>53.438420000000001</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1954.3</v>
+      </c>
+      <c r="F37" s="14">
+        <v>3962.0390000000002</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1.002186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="42"/>
+      <c r="B38" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="34">
         <v>2469.415</v>
       </c>
-      <c r="I11" s="21">
+      <c r="D38" s="23">
         <v>48.523870000000002</v>
       </c>
-      <c r="J11" s="21">
+      <c r="E38" s="23">
         <v>2420.8910000000001</v>
       </c>
-      <c r="K11" s="21">
+      <c r="F38" s="23">
         <v>4890.3069999999998</v>
       </c>
-      <c r="L11" s="22">
+      <c r="G38" s="24">
         <v>1.002785</v>
       </c>
     </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="43"/>
+      <c r="B39" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="20">
+        <v>6094.3649999999998</v>
+      </c>
+      <c r="D39" s="20">
+        <v>36.899000000000001</v>
+      </c>
+      <c r="E39" s="20">
+        <v>6057.4660000000003</v>
+      </c>
+      <c r="F39" s="20">
+        <v>12151.83</v>
+      </c>
+      <c r="G39" s="21">
+        <v>1.001042</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C28:G29"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C16:G17"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A3:A5"/>
